--- a/Banco Central/5/6/Tasas y montos transados en el mercado interbancario 2021 - Diaria.xlsx
+++ b/Banco Central/5/6/Tasas y montos transados en el mercado interbancario 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Serie</t>
   </si>
@@ -467,6 +467,18 @@
   </si>
   <si>
     <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
   </si>
 </sst>
 </file>
@@ -824,7 +836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4065,7 +4077,90 @@
       <c r="A145" t="s">
         <v>150</v>
       </c>
+      <c r="B145">
+        <v>270000</v>
+      </c>
+      <c r="C145">
+        <v>0.75</v>
+      </c>
+      <c r="D145">
+        <v>0.75</v>
+      </c>
+      <c r="E145">
+        <v>0.75</v>
+      </c>
+      <c r="F145">
+        <v>7</v>
+      </c>
       <c r="G145">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146">
+        <v>25000</v>
+      </c>
+      <c r="F146">
+        <v>2</v>
+      </c>
+      <c r="G146">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147">
+        <v>175000</v>
+      </c>
+      <c r="C147">
+        <v>0.75</v>
+      </c>
+      <c r="D147">
+        <v>0.75</v>
+      </c>
+      <c r="E147">
+        <v>0.75</v>
+      </c>
+      <c r="F147">
+        <v>6</v>
+      </c>
+      <c r="G147">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148">
+        <v>175000</v>
+      </c>
+      <c r="C148">
+        <v>0.75</v>
+      </c>
+      <c r="D148">
+        <v>0.75</v>
+      </c>
+      <c r="E148">
+        <v>0.75</v>
+      </c>
+      <c r="F148">
+        <v>6</v>
+      </c>
+      <c r="G148">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>154</v>
+      </c>
+      <c r="G149">
         <v>0.75</v>
       </c>
     </row>

--- a/Banco Central/5/6/Tasas y montos transados en el mercado interbancario 2021 - Diaria.xlsx
+++ b/Banco Central/5/6/Tasas y montos transados en el mercado interbancario 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>Serie</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
   </si>
 </sst>
 </file>
@@ -836,7 +839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4160,7 +4163,30 @@
       <c r="A149" t="s">
         <v>154</v>
       </c>
+      <c r="B149">
+        <v>85000</v>
+      </c>
+      <c r="C149">
+        <v>0.75</v>
+      </c>
+      <c r="D149">
+        <v>0.75</v>
+      </c>
+      <c r="E149">
+        <v>0.75</v>
+      </c>
+      <c r="F149">
+        <v>4</v>
+      </c>
       <c r="G149">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>155</v>
+      </c>
+      <c r="G150">
         <v>0.75</v>
       </c>
     </row>
